--- a/partners.xlsx
+++ b/partners.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sn</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Country</t>
@@ -534,11 +529,16 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>BigS/SmallS</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Dietary Restriction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -621,9 +621,10 @@
           <t>Big S</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -638,12 +639,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>Untiered</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>John applebee</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -669,7 +670,7 @@
           <t>S3565G, S7599H</t>
         </is>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>45300</v>
       </c>
       <c r="L3" t="inlineStr">
@@ -710,9 +711,14 @@
           <t>Small S</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>No peanut</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -795,9 +801,10 @@
           <t>Big S</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -880,9 +887,10 @@
           <t>Big S</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -965,59 +973,7 @@
           <t>Small S</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>asd q</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Test 1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>6351146</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" s="3" t="n">
-        <v>45611</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/partners.xlsx
+++ b/partners.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>John applebee</t>
+          <t>John</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">

--- a/partners.xlsx
+++ b/partners.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -558,7 +558,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Albert Tan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -597,10 +597,14 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>20</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>45656</v>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>sleeping</t>
@@ -621,7 +625,11 @@
           <t>Big S</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -688,7 +696,7 @@
           <t>N.A.</t>
         </is>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>45334</v>
       </c>
       <c r="P3" t="inlineStr">
@@ -764,7 +772,7 @@
           <t>S3554L</t>
         </is>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>45301</v>
       </c>
       <c r="L4" t="inlineStr">
@@ -850,7 +858,7 @@
           <t xml:space="preserve">SADF </t>
         </is>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>45302</v>
       </c>
       <c r="L5" t="inlineStr">
@@ -934,7 +942,7 @@
       <c r="J6" t="n">
         <v>2093</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <v>45303</v>
       </c>
       <c r="L6" t="inlineStr">

--- a/partners.xlsx
+++ b/partners.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
           <t>S3565G, S7599H</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="L3" t="inlineStr">
@@ -789,10 +789,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>running</t>
@@ -813,7 +819,11 @@
           <t>Big S</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>images/mary.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -862,7 +872,7 @@
           <t xml:space="preserve">SADF </t>
         </is>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="2" t="n">
         <v>45302</v>
       </c>
       <c r="L5" t="inlineStr">
@@ -946,7 +956,7 @@
       <c r="J6" t="n">
         <v>2093</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="2" t="n">
         <v>45303</v>
       </c>
       <c r="L6" t="inlineStr">
@@ -986,6 +996,184 @@
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catalonia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cat Castle</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Princess</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>16548</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asdfas65651 </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>safsa 89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>45724</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>sleep, eat, play</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>NYR, ALSE</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Hari Raya, Seasons Greetings, Rosh Hashanah, Deepavali</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sdaf</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45724</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Deposted</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>sdfa</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NYR, ALSE</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Thanksgiving, Deepavali, Hari Raya, Rosh Hashanah, Seasons Greetings, Chinese New Year</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>BigS, SmallS</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>images/cat_2.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
